--- a/excel/data_excel/PlayerClass.xlsx
+++ b/excel/data_excel/PlayerClass.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{241924DB-B6A6-481C-9F2F-8979B65D2FE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="12645" yWindow="4417" windowWidth="15390" windowHeight="9533" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,15 +13,15 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="PlayerClass" localSheetId="0">Sheet1!$A$1:$B$9</definedName>
+    <definedName name="PlayerClass" localSheetId="0">Sheet1!$C$1:$D$11</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="PlayerClass" type="6" refreshedVersion="4" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="PlayerClass" type="6" refreshedVersion="4" background="1" saveData="1">
     <textPr codePage="65001" sourceFile="D:\minieditor20190622\Editor20190622\project\dreamland\excel\data_excel\PlayerClass.txt">
       <textFields count="2">
         <textField/>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
   <si>
     <t>Player Class</t>
   </si>
@@ -84,11 +85,35 @@
   <si>
     <t>ass</t>
   </si>
+  <si>
+    <t>数据ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>showname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i_PlayerClass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -137,12 +162,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PlayerClass" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="PlayerClass" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -188,7 +216,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -221,9 +249,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -256,6 +301,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -431,83 +493,167 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.86328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
         <v>13</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
         <v>15</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" t="s">
         <v>16</v>
       </c>
     </row>
@@ -518,12 +664,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -531,12 +677,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
